--- a/data batik campuran aja.xlsx
+++ b/data batik campuran aja.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F483C51A-9035-453C-B0C1-3E54F69ECC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFEE291-FE49-489E-9B1C-8E266123446C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1B63B64E-45A9-45E0-9FA4-DD400CF73B46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,88 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>batas 2016</t>
+    <t>Target-Jumlah Produksi</t>
   </si>
   <si>
-    <t>idul fitri 2017</t>
-  </si>
-  <si>
-    <t>batas 2017</t>
-  </si>
-  <si>
-    <t>idul fitri 2018</t>
-  </si>
-  <si>
-    <t>batas 2018</t>
-  </si>
-  <si>
-    <t>idul fitri 2019</t>
-  </si>
-  <si>
-    <t>batas 2019</t>
-  </si>
-  <si>
-    <t>batas 2010</t>
-  </si>
-  <si>
-    <t>idul fitri 2010</t>
-  </si>
-  <si>
-    <t>batas 2011</t>
-  </si>
-  <si>
-    <t>idul fitri 2011</t>
-  </si>
-  <si>
-    <t>idul fitri 2012</t>
-  </si>
-  <si>
-    <t>batas 2012</t>
-  </si>
-  <si>
-    <t>idul fitri 2013</t>
-  </si>
-  <si>
-    <t>batas 2013</t>
-  </si>
-  <si>
-    <t>batas 2014</t>
-  </si>
-  <si>
-    <t>batas 2015</t>
-  </si>
-  <si>
-    <t>idul fitri 2014</t>
-  </si>
-  <si>
-    <t>idul fitri 2015</t>
-  </si>
-  <si>
-    <t>idul fitri 2016</t>
-  </si>
-  <si>
-    <t>idul fitri 2020</t>
-  </si>
-  <si>
-    <t>batas 2020</t>
-  </si>
-  <si>
-    <t>idul fitri 2021</t>
+    <t>Minggu ke-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -182,8 +125,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -199,6 +140,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,603 +455,593 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8F3BAF-81DF-4251-BE8A-8FF0B17CD4D1}">
-  <dimension ref="A1:C624"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8267AF4-0CA3-4050-8A46-CC21E2AD9D3A}">
+  <dimension ref="A1:B625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" zoomScale="69" workbookViewId="0">
-      <selection activeCell="D415" sqref="D415"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
-        <v>41</v>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <f>A1+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A66" si="0">A2+1</f>
-        <v>3</v>
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>A4+1</f>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>A5+1</f>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>A6+1</f>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>A7+1</f>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>A8+1</f>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>A9+1</f>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>A10+1</f>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>A11+1</f>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>A12+1</f>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>A13+1</f>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>A14+1</f>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>A15+1</f>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>A16+1</f>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>A17+1</f>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>A18+1</f>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>A19+1</f>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
+      <c r="A21" s="9">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <f>A21+1</f>
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
+      <c r="B22" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <f>A22+1</f>
         <v>22</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <f>A23+1</f>
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <f>A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <f>A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <f>A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <f>A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <f>A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
         <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f>A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>31</v>
-      </c>
-      <c r="B31" s="1">
-        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f>A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f>A32+1</f>
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
-        <f t="shared" si="0"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <f>A33+1</f>
         <v>33</v>
       </c>
-      <c r="B33" s="10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="10">
-        <f t="shared" si="0"/>
+      <c r="B34" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
+        <f>A34+1</f>
         <v>34</v>
       </c>
-      <c r="B34" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <f t="shared" si="0"/>
+      <c r="B35" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <f>A35+1</f>
         <v>35</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f>A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f>A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B36" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B37" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f>A38+1</f>
         <v>38</v>
-      </c>
-      <c r="B38" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
       </c>
       <c r="B39" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f>A40+1</f>
         <v>40</v>
       </c>
-      <c r="B40" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
+      <c r="B41" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f>A41+1</f>
         <v>41</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B42" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f>A42+1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f>A43+1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f>A44+1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f>A45+1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B42" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f>A46+1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f>A47+1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f>A48+1</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f>A49+1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f>A50+1</f>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <f>A51+1</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B45" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B46" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B47" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B48" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B49" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B50" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B51" s="1">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <f>A52+1</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <f>A53+1</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B52" s="4">
-        <v>32</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B53" s="1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <f>A54+1</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <f>A55+1</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B54" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B55" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <f>A56+1</f>
         <v>56</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B57" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <f>A57+1</f>
         <v>57</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B58" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <f>A58+1</f>
         <v>58</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B59" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <f>A59+1</f>
         <v>59</v>
-      </c>
-      <c r="B59" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
       </c>
       <c r="B60" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <f t="shared" si="0"/>
+        <f>A60+1</f>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <f>A61+1</f>
         <v>61</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B62" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <f t="shared" si="0"/>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <f>A62+1</f>
         <v>62</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B63" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <f>A63+1</f>
         <v>63</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B64" s="1">
         <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B64" s="1">
-        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f>A64+1</f>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>30</v>
@@ -1116,71 +1049,71 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f>A65+1</f>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <f t="shared" ref="A67:A130" si="1">A66+1</f>
-        <v>67</v>
+        <f>A66+1</f>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f>A67+1</f>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <f>A68+1</f>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>A69+1</f>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f>A70+1</f>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f>A71+1</f>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f>A72+1</f>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>39</v>
@@ -1188,390 +1121,384 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f>A73+1</f>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>A74+1</f>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f>A75+1</f>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f>A76+1</f>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f>A77+1</f>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f>A78+1</f>
+        <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <f t="shared" si="1"/>
+        <f>A79+1</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <f>A80+1</f>
         <v>80</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <f>A81+1</f>
         <v>81</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B82" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <f>A82+1</f>
         <v>82</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B83" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <f>A83+1</f>
         <v>83</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B84" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <f>A84+1</f>
         <v>84</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B85" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <f>A85+1</f>
         <v>85</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
-        <f t="shared" si="1"/>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <f>A86+1</f>
         <v>86</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <f t="shared" si="1"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <f>A87+1</f>
         <v>87</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B88" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <f t="shared" si="1"/>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <f>A88+1</f>
         <v>88</v>
-      </c>
-      <c r="B88" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
       </c>
       <c r="B89" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <f t="shared" si="1"/>
+        <f>A89+1</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <f>A90+1</f>
         <v>90</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B91" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <f t="shared" si="1"/>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <f>A91+1</f>
         <v>91</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B92" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <f t="shared" si="1"/>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <f>A92+1</f>
         <v>92</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B93" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <f t="shared" si="1"/>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <f>A93+1</f>
         <v>93</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B94" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <f t="shared" si="1"/>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <f>A94+1</f>
         <v>94</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B95" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <f t="shared" si="1"/>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <f>A95+1</f>
         <v>95</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B96" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <f t="shared" si="1"/>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <f>A96+1</f>
         <v>96</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B97" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <f t="shared" si="1"/>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <f>A97+1</f>
         <v>97</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B98" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <f t="shared" si="1"/>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <f>A98+1</f>
         <v>98</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B99" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <f t="shared" si="1"/>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <f>A99+1</f>
         <v>99</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B100" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <f t="shared" si="1"/>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <f>A100+1</f>
         <v>100</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B101" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <f t="shared" si="1"/>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <f>A101+1</f>
         <v>101</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B102" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <f t="shared" si="1"/>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <f>A102+1</f>
         <v>102</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B103" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <f t="shared" si="1"/>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <f>A103+1</f>
         <v>103</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B104" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="4">
-        <f t="shared" si="1"/>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="4">
+        <f>A104+1</f>
         <v>104</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B105" s="4">
         <v>35</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <f>A105+1</f>
         <v>105</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B106" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <f t="shared" si="1"/>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <f>A106+1</f>
         <v>106</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B107" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <f t="shared" si="1"/>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <f>A107+1</f>
         <v>107</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B108" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <f t="shared" si="1"/>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <f>A108+1</f>
         <v>108</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B109" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <f t="shared" si="1"/>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <f>A109+1</f>
         <v>109</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B110" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <f t="shared" si="1"/>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <f>A110+1</f>
         <v>110</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B111" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <f t="shared" si="1"/>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <f>A111+1</f>
         <v>111</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B112" s="1">
         <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="B112" s="1">
-        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <f t="shared" si="1"/>
-        <v>113</v>
+        <f>A112+1</f>
+        <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <f t="shared" si="1"/>
-        <v>114</v>
+        <f>A113+1</f>
+        <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <f>A114+1</f>
+        <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <f t="shared" si="1"/>
-        <v>116</v>
+        <f>A115+1</f>
+        <v>115</v>
       </c>
       <c r="B116" s="1">
         <v>41</v>
@@ -1579,417 +1506,411 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <f t="shared" si="1"/>
-        <v>117</v>
+        <f>A116+1</f>
+        <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <f t="shared" si="1"/>
-        <v>118</v>
+        <f>A117+1</f>
+        <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <f t="shared" si="1"/>
-        <v>119</v>
+        <f>A118+1</f>
+        <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f>A119+1</f>
+        <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <f t="shared" si="1"/>
-        <v>121</v>
+        <f>A120+1</f>
+        <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <f>A121+1</f>
+        <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <f t="shared" si="1"/>
-        <v>123</v>
+        <f>A122+1</f>
+        <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <f t="shared" si="1"/>
-        <v>124</v>
+        <f>A123+1</f>
+        <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>A124+1</f>
+        <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <f t="shared" si="1"/>
-        <v>126</v>
+        <f>A125+1</f>
+        <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <f t="shared" si="1"/>
-        <v>127</v>
+        <f>A126+1</f>
+        <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <f t="shared" si="1"/>
+        <f>A127+1</f>
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <f>A128+1</f>
         <v>128</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B129" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <f t="shared" si="1"/>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <f>A129+1</f>
         <v>129</v>
-      </c>
-      <c r="B129" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <f t="shared" si="1"/>
-        <v>130</v>
       </c>
       <c r="B130" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <f t="shared" ref="A131:A194" si="2">A130+1</f>
+        <f>A130+1</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <f>A131+1</f>
         <v>131</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B132" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <f t="shared" si="2"/>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <f>A132+1</f>
         <v>132</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B133" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <f t="shared" si="2"/>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <f>A133+1</f>
         <v>133</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B134" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <f t="shared" si="2"/>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <f>A134+1</f>
         <v>134</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B135" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <f t="shared" si="2"/>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <f>A135+1</f>
         <v>135</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B136" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <f t="shared" si="2"/>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <f>A136+1</f>
         <v>136</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B137" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="2">
-        <f t="shared" si="2"/>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <f>A137+1</f>
         <v>137</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <f t="shared" si="2"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <f>A138+1</f>
         <v>138</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B139" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <f t="shared" si="2"/>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <f>A139+1</f>
         <v>139</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B140" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <f t="shared" si="2"/>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <f>A140+1</f>
         <v>140</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B141" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
-        <f t="shared" si="2"/>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <f>A141+1</f>
         <v>141</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B142" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <f t="shared" si="2"/>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <f>A142+1</f>
         <v>142</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B143" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <f t="shared" si="2"/>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <f>A143+1</f>
         <v>143</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B144" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <f t="shared" si="2"/>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <f>A144+1</f>
         <v>144</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B145" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
-        <f t="shared" si="2"/>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <f>A145+1</f>
         <v>145</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B146" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
-        <f t="shared" si="2"/>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <f>A146+1</f>
         <v>146</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B147" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
-        <f t="shared" si="2"/>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <f>A147+1</f>
         <v>147</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B148" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
-        <f t="shared" si="2"/>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <f>A148+1</f>
         <v>148</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B149" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
-        <f t="shared" si="2"/>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <f>A149+1</f>
         <v>149</v>
-      </c>
-      <c r="B149" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
-        <f t="shared" si="2"/>
-        <v>150</v>
       </c>
       <c r="B150" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <f t="shared" si="2"/>
+        <f>A150+1</f>
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <f>A151+1</f>
         <v>151</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B152" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <f t="shared" si="2"/>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <f>A152+1</f>
         <v>152</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B153" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
-        <f t="shared" si="2"/>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <f>A153+1</f>
         <v>153</v>
-      </c>
-      <c r="B153" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
-        <f t="shared" si="2"/>
-        <v>154</v>
       </c>
       <c r="B154" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <f t="shared" si="2"/>
+        <f>A154+1</f>
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <f>A155+1</f>
         <v>155</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B156" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="4">
-        <f t="shared" si="2"/>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="4">
+        <f>A156+1</f>
         <v>156</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B157" s="4">
         <v>43</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <f>A157+1</f>
         <v>157</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B158" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <f t="shared" si="2"/>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <f>A158+1</f>
         <v>158</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B159" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <f t="shared" si="2"/>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <f>A159+1</f>
         <v>159</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B160" s="1">
         <v>44</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="B160" s="1">
-        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <f t="shared" si="2"/>
-        <v>161</v>
+        <f>A160+1</f>
+        <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <f t="shared" si="2"/>
-        <v>162</v>
+        <f>A161+1</f>
+        <v>161</v>
       </c>
       <c r="B162" s="1">
         <v>44</v>
@@ -1997,561 +1918,555 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <f t="shared" si="2"/>
-        <v>163</v>
+        <f>A162+1</f>
+        <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <f t="shared" si="2"/>
-        <v>164</v>
+        <f>A163+1</f>
+        <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <f t="shared" si="2"/>
-        <v>165</v>
+        <f>A164+1</f>
+        <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <f t="shared" si="2"/>
-        <v>166</v>
+        <f>A165+1</f>
+        <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <f t="shared" si="2"/>
-        <v>167</v>
+        <f>A166+1</f>
+        <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <f t="shared" si="2"/>
-        <v>168</v>
+        <f>A167+1</f>
+        <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <f t="shared" si="2"/>
-        <v>169</v>
+        <f>A168+1</f>
+        <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <f>A169+1</f>
+        <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <f t="shared" si="2"/>
-        <v>171</v>
+        <f>A170+1</f>
+        <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <f t="shared" si="2"/>
-        <v>172</v>
+        <f>A171+1</f>
+        <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <f t="shared" si="2"/>
-        <v>173</v>
+        <f>A172+1</f>
+        <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <f t="shared" si="2"/>
-        <v>174</v>
+        <f>A173+1</f>
+        <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <f t="shared" si="2"/>
-        <v>175</v>
+        <f>A174+1</f>
+        <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <f t="shared" si="2"/>
+        <f>A175+1</f>
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <f>A176+1</f>
         <v>176</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B177" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
-        <f t="shared" si="2"/>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <f>A177+1</f>
         <v>177</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B178" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
-        <f t="shared" si="2"/>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <f>A178+1</f>
         <v>178</v>
-      </c>
-      <c r="B178" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
-        <f t="shared" si="2"/>
-        <v>179</v>
       </c>
       <c r="B179" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <f t="shared" si="2"/>
+        <f>A179+1</f>
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <f>A180+1</f>
         <v>180</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B181" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="1">
-        <f t="shared" si="2"/>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <f>A181+1</f>
         <v>181</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B182" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="1">
-        <f t="shared" si="2"/>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <f>A182+1</f>
         <v>182</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B183" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
-        <f t="shared" si="2"/>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <f>A183+1</f>
         <v>183</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B184" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
-        <f t="shared" si="2"/>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <f>A184+1</f>
         <v>184</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B185" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
-        <f t="shared" si="2"/>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <f>A185+1</f>
         <v>185</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B186" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="1">
-        <f t="shared" si="2"/>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <f>A186+1</f>
         <v>186</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B187" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="2">
-        <f t="shared" si="2"/>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="2">
+        <f>A187+1</f>
         <v>187</v>
       </c>
-      <c r="B187" s="2"/>
-      <c r="C187" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="1">
-        <f t="shared" si="2"/>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <f>A188+1</f>
         <v>188</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B189" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
-        <f t="shared" si="2"/>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <f>A189+1</f>
         <v>189</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B190" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
-        <f t="shared" si="2"/>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <f>A190+1</f>
         <v>190</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B191" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
-        <f t="shared" si="2"/>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <f>A191+1</f>
         <v>191</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B192" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="1">
-        <f t="shared" si="2"/>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <f>A192+1</f>
         <v>192</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B193" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="1">
-        <f t="shared" si="2"/>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <f>A193+1</f>
         <v>193</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B194" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="1">
-        <f t="shared" si="2"/>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <f>A194+1</f>
         <v>194</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B195" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="1">
-        <f t="shared" ref="A195:A258" si="3">A194+1</f>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <f>A195+1</f>
         <v>195</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B196" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="1">
-        <f t="shared" si="3"/>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <f>A196+1</f>
         <v>196</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B197" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="1">
-        <f t="shared" si="3"/>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <f>A197+1</f>
         <v>197</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B198" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="1">
-        <f t="shared" si="3"/>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <f>A198+1</f>
         <v>198</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B199" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="1">
-        <f t="shared" si="3"/>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <f>A199+1</f>
         <v>199</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B200" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="1">
-        <f t="shared" si="3"/>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <f>A200+1</f>
         <v>200</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B201" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="1">
-        <f t="shared" si="3"/>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <f>A201+1</f>
         <v>201</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B202" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="1">
-        <f t="shared" si="3"/>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <f>A202+1</f>
         <v>202</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B203" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="1">
-        <f t="shared" si="3"/>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <f>A203+1</f>
         <v>203</v>
-      </c>
-      <c r="B203" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="1">
-        <f t="shared" si="3"/>
-        <v>204</v>
       </c>
       <c r="B204" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <f t="shared" si="3"/>
+        <f>A204+1</f>
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <f>A205+1</f>
         <v>205</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B206" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="1">
-        <f t="shared" si="3"/>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <f>A206+1</f>
         <v>206</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B207" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="1">
-        <f t="shared" si="3"/>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <f>A207+1</f>
         <v>207</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B208" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="4">
-        <f t="shared" si="3"/>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="4">
+        <f>A208+1</f>
         <v>208</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B209" s="4">
         <v>35</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="1">
-        <f t="shared" si="3"/>
-        <v>209</v>
-      </c>
-      <c r="B209" s="1">
-        <v>34</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <f t="shared" si="3"/>
-        <v>210</v>
+        <f>A209+1</f>
+        <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <f t="shared" si="3"/>
-        <v>211</v>
+        <f>A210+1</f>
+        <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <f t="shared" si="3"/>
-        <v>212</v>
+        <f>A211+1</f>
+        <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <f t="shared" si="3"/>
-        <v>213</v>
+        <f>A212+1</f>
+        <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <f t="shared" si="3"/>
-        <v>214</v>
+        <f>A213+1</f>
+        <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <f t="shared" si="3"/>
-        <v>215</v>
+        <f>A214+1</f>
+        <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <f t="shared" si="3"/>
-        <v>216</v>
+        <f>A215+1</f>
+        <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <f t="shared" si="3"/>
-        <v>217</v>
+        <f>A216+1</f>
+        <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <f t="shared" si="3"/>
-        <v>218</v>
+        <f>A217+1</f>
+        <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <f t="shared" si="3"/>
-        <v>219</v>
+        <f>A218+1</f>
+        <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <f t="shared" si="3"/>
-        <v>220</v>
+        <f>A219+1</f>
+        <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <f t="shared" si="3"/>
-        <v>221</v>
+        <f>A220+1</f>
+        <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <f t="shared" si="3"/>
-        <v>222</v>
+        <f>A221+1</f>
+        <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <f t="shared" si="3"/>
-        <v>223</v>
+        <f>A222+1</f>
+        <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
-        <f t="shared" si="3"/>
-        <v>224</v>
+        <f>A223+1</f>
+        <v>223</v>
       </c>
       <c r="B224" s="1">
         <v>43</v>
@@ -2559,89 +2474,89 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
-        <f t="shared" si="3"/>
-        <v>225</v>
+        <f>A224+1</f>
+        <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
-        <f t="shared" si="3"/>
-        <v>226</v>
+        <f>A225+1</f>
+        <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
-        <f t="shared" si="3"/>
-        <v>227</v>
+        <f>A226+1</f>
+        <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <f t="shared" si="3"/>
-        <v>228</v>
+        <f>A227+1</f>
+        <v>227</v>
       </c>
       <c r="B228" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <f t="shared" si="3"/>
-        <v>229</v>
+        <f>A228+1</f>
+        <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
-        <f t="shared" si="3"/>
-        <v>230</v>
+        <f>A229+1</f>
+        <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
-        <f t="shared" si="3"/>
-        <v>231</v>
+        <f>A230+1</f>
+        <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
-        <f t="shared" si="3"/>
-        <v>232</v>
+        <f>A231+1</f>
+        <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
-        <f t="shared" si="3"/>
-        <v>233</v>
+        <f>A232+1</f>
+        <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
-        <f t="shared" si="3"/>
-        <v>234</v>
+        <f>A233+1</f>
+        <v>233</v>
       </c>
       <c r="B234" s="1">
         <v>35</v>
@@ -2649,8 +2564,8 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
-        <f t="shared" si="3"/>
-        <v>235</v>
+        <f>A234+1</f>
+        <v>234</v>
       </c>
       <c r="B235" s="1">
         <v>35</v>
@@ -2658,3221 +2573,3185 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <f t="shared" si="3"/>
-        <v>236</v>
+        <f>A235+1</f>
+        <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <f t="shared" si="3"/>
-        <v>237</v>
+        <f>A236+1</f>
+        <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <f t="shared" si="3"/>
-        <v>238</v>
+        <f>A237+1</f>
+        <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
-        <f t="shared" si="3"/>
-        <v>239</v>
+        <f>A238+1</f>
+        <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
-        <f t="shared" si="3"/>
+        <f>A239+1</f>
+        <v>239</v>
+      </c>
+      <c r="B240" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <f>A240+1</f>
         <v>240</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B241" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A241" s="2">
-        <f t="shared" si="3"/>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="2">
+        <f>A241+1</f>
         <v>241</v>
       </c>
-      <c r="B241" s="2"/>
-      <c r="C241" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="1">
-        <f t="shared" si="3"/>
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <f>A242+1</f>
         <v>242</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B243" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A243" s="1">
-        <f t="shared" si="3"/>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <f>A243+1</f>
         <v>243</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B244" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A244" s="1">
-        <f t="shared" si="3"/>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <f>A244+1</f>
         <v>244</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B245" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A245" s="1">
-        <f t="shared" si="3"/>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <f>A245+1</f>
         <v>245</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B246" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A246" s="1">
-        <f t="shared" si="3"/>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <f>A246+1</f>
         <v>246</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B247" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A247" s="1">
-        <f t="shared" si="3"/>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <f>A247+1</f>
         <v>247</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B248" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A248" s="1">
-        <f t="shared" si="3"/>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <f>A248+1</f>
         <v>248</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B249" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A249" s="1">
-        <f t="shared" si="3"/>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <f>A249+1</f>
         <v>249</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B250" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A250" s="1">
-        <f t="shared" si="3"/>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <f>A250+1</f>
         <v>250</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B251" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A251" s="1">
-        <f t="shared" si="3"/>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <f>A251+1</f>
         <v>251</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B252" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A252" s="1">
-        <f t="shared" si="3"/>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <f>A252+1</f>
         <v>252</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B253" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A253" s="1">
-        <f t="shared" si="3"/>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <f>A253+1</f>
         <v>253</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B254" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A254" s="1">
-        <f t="shared" si="3"/>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <f>A254+1</f>
         <v>254</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B255" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A255" s="1">
-        <f t="shared" si="3"/>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <f>A255+1</f>
         <v>255</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B256" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A256" s="1">
-        <f t="shared" si="3"/>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <f>A256+1</f>
         <v>256</v>
-      </c>
-      <c r="B256" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="1">
-        <f t="shared" si="3"/>
-        <v>257</v>
       </c>
       <c r="B257" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
-        <f t="shared" si="3"/>
+        <f>A257+1</f>
+        <v>257</v>
+      </c>
+      <c r="B258" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <f>A258+1</f>
         <v>258</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B259" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="1">
-        <f t="shared" ref="A259:A312" si="4">A258+1</f>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <f>A259+1</f>
         <v>259</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B260" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" s="4">
-        <f t="shared" si="4"/>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="4">
+        <f>A260+1</f>
         <v>260</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B261" s="4">
         <v>34</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" s="1">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <f>A261+1</f>
         <v>261</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B262" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" s="1">
-        <f t="shared" si="4"/>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <f>A262+1</f>
         <v>262</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B263" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A263" s="1">
-        <f t="shared" si="4"/>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <f>A263+1</f>
         <v>263</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B264" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A264" s="1">
-        <f t="shared" si="4"/>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="1">
+        <f>A264+1</f>
         <v>264</v>
-      </c>
-      <c r="B264" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A265" s="1">
-        <f t="shared" si="4"/>
-        <v>265</v>
       </c>
       <c r="B265" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
-        <f t="shared" si="4"/>
+        <f>A265+1</f>
+        <v>265</v>
+      </c>
+      <c r="B266" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="1">
+        <f>A266+1</f>
         <v>266</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B267" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A267" s="1">
-        <f t="shared" si="4"/>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <f>A267+1</f>
         <v>267</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B268" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" s="1">
-        <f t="shared" si="4"/>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="1">
+        <f>A268+1</f>
         <v>268</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B269" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A269" s="1">
-        <f t="shared" si="4"/>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="1">
+        <f>A269+1</f>
         <v>269</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B270" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A270" s="1">
-        <f t="shared" si="4"/>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="1">
+        <f>A270+1</f>
         <v>270</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B271" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A271" s="1">
-        <f t="shared" si="4"/>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="1">
+        <f>A271+1</f>
         <v>271</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B272" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A272" s="1">
-        <f t="shared" si="4"/>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="1">
+        <f>A272+1</f>
         <v>272</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B273" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="1">
-        <f t="shared" si="4"/>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <f>A273+1</f>
         <v>273</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B274" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" s="1">
-        <f t="shared" si="4"/>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
+        <f>A274+1</f>
         <v>274</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B275" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="1">
-        <f t="shared" si="4"/>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
+        <f>A275+1</f>
         <v>275</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B276" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" s="1">
-        <f t="shared" si="4"/>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
+        <f>A276+1</f>
         <v>276</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B277" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="1">
-        <f t="shared" si="4"/>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="1">
+        <f>A277+1</f>
         <v>277</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B278" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" s="1">
-        <f t="shared" si="4"/>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="1">
+        <f>A278+1</f>
         <v>278</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B279" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" s="1">
-        <f t="shared" si="4"/>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <f>A279+1</f>
         <v>279</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B280" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" s="1">
-        <f t="shared" si="4"/>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
+        <f>A280+1</f>
         <v>280</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B281" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" s="1">
-        <f t="shared" si="4"/>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
+        <f>A281+1</f>
         <v>281</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B282" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" s="1">
-        <f t="shared" si="4"/>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="1">
+        <f>A282+1</f>
         <v>282</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B283" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" s="1">
-        <f t="shared" si="4"/>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <f>A283+1</f>
         <v>283</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B284" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="1">
-        <f t="shared" si="4"/>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <f>A284+1</f>
         <v>284</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B285" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" s="1">
-        <f t="shared" si="4"/>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <f>A285+1</f>
         <v>285</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B286" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" s="1">
-        <f t="shared" si="4"/>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <f>A286+1</f>
         <v>286</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B287" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" s="1">
-        <f t="shared" si="4"/>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <f>A287+1</f>
         <v>287</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B288" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="2">
-        <f t="shared" si="4"/>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="2">
+        <f>A288+1</f>
         <v>288</v>
       </c>
-      <c r="B288" s="2"/>
-      <c r="C288" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="1">
-        <f t="shared" si="4"/>
-        <v>289</v>
-      </c>
-      <c r="B289" s="1">
-        <v>31</v>
-      </c>
+      <c r="B289" s="2"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
-        <f t="shared" si="4"/>
-        <v>290</v>
+        <f>A289+1</f>
+        <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
-        <f t="shared" si="4"/>
-        <v>291</v>
+        <f>A290+1</f>
+        <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
-        <f t="shared" si="4"/>
-        <v>292</v>
+        <f>A291+1</f>
+        <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
-        <f t="shared" si="4"/>
-        <v>293</v>
+        <f>A292+1</f>
+        <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
-        <f t="shared" si="4"/>
-        <v>294</v>
+        <f>A293+1</f>
+        <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
-        <f t="shared" si="4"/>
-        <v>295</v>
+        <f>A294+1</f>
+        <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
-        <f t="shared" si="4"/>
-        <v>296</v>
+        <f>A295+1</f>
+        <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
-        <f t="shared" si="4"/>
-        <v>297</v>
+        <f>A296+1</f>
+        <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
-        <f t="shared" si="4"/>
-        <v>298</v>
+        <f>A297+1</f>
+        <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
-        <f t="shared" si="4"/>
-        <v>299</v>
+        <f>A298+1</f>
+        <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
-        <f t="shared" si="4"/>
-        <v>300</v>
+        <f>A299+1</f>
+        <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
-        <f t="shared" si="4"/>
-        <v>301</v>
+        <f>A300+1</f>
+        <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
-        <f t="shared" si="4"/>
-        <v>302</v>
+        <f>A301+1</f>
+        <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
-        <f t="shared" si="4"/>
-        <v>303</v>
+        <f>A302+1</f>
+        <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
-        <f t="shared" si="4"/>
+        <f>A303+1</f>
+        <v>303</v>
+      </c>
+      <c r="B304" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <f>A304+1</f>
         <v>304</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B305" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305" s="1">
-        <f t="shared" si="4"/>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <f>A305+1</f>
         <v>305</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B306" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306" s="1">
-        <f t="shared" si="4"/>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <f>A306+1</f>
         <v>306</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B307" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307" s="1">
-        <f t="shared" si="4"/>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <f>A307+1</f>
         <v>307</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B308" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308" s="1">
-        <f t="shared" si="4"/>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <f>A308+1</f>
         <v>308</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B309" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309" s="1">
-        <f t="shared" si="4"/>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
+        <f>A309+1</f>
         <v>309</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B310" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310" s="1">
-        <f t="shared" si="4"/>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
+        <f>A310+1</f>
         <v>310</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B311" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311" s="1">
-        <f t="shared" si="4"/>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
+        <f>A311+1</f>
         <v>311</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B312" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" s="4">
-        <f t="shared" si="4"/>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="4">
+        <f>A312+1</f>
         <v>312</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B313" s="4">
         <v>43</v>
       </c>
-      <c r="C312" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313" s="1">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
         <v>313</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B314" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314" s="1">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
         <v>314</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B315" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315" s="1">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
         <v>315</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B316" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316" s="1">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
         <v>316</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B317" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317" s="1">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
         <v>317</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B318" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318" s="1">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
         <v>318</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B319" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319" s="1">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
         <v>319</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B320" s="1">
         <v>41</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320" s="1">
-        <v>320</v>
-      </c>
-      <c r="B320" s="1">
-        <v>42</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B337" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" s="1">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B338" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" s="1">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B339" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" s="2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="2">
         <v>339</v>
       </c>
-      <c r="B339" s="2"/>
-      <c r="C339" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" s="1">
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="1">
         <v>340</v>
-      </c>
-      <c r="B340" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" s="1">
-        <v>341</v>
       </c>
       <c r="B341" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="1">
         <v>342</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B343" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" s="1">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="1">
         <v>343</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B344" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" s="1">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="1">
         <v>344</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B345" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" s="1">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="1">
         <v>345</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B346" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" s="1">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="1">
         <v>346</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B347" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" s="1">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="1">
         <v>347</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B348" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" s="1">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="1">
         <v>348</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B349" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" s="1">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="1">
         <v>349</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B350" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" s="1">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="1">
         <v>350</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B351" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" s="1">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="1">
         <v>351</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B352" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" s="1">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="1">
         <v>352</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B353" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" s="1">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="1">
         <v>353</v>
-      </c>
-      <c r="B353" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" s="1">
-        <v>354</v>
       </c>
       <c r="B354" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="1">
         <v>355</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B356" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" s="1">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="1">
         <v>356</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B357" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" s="1">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="1">
         <v>357</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B358" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" s="1">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="1">
         <v>358</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B359" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" s="1">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="1">
         <v>359</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B360" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" s="1">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="1">
         <v>360</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B361" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" s="1">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
         <v>361</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B362" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" s="1">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
         <v>362</v>
       </c>
-      <c r="B362" s="1">
+      <c r="B363" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" s="1">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
         <v>363</v>
       </c>
-      <c r="B363" s="1">
+      <c r="B364" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" s="4">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="4">
         <v>364</v>
       </c>
-      <c r="B364" s="4">
+      <c r="B365" s="4">
         <v>30</v>
       </c>
-      <c r="C364" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" s="1">
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
         <v>365</v>
       </c>
-      <c r="B365" s="1">
+      <c r="B366" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" s="1">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
         <v>366</v>
       </c>
-      <c r="B366" s="1">
+      <c r="B367" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" s="1">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
         <v>367</v>
       </c>
-      <c r="B367" s="1">
+      <c r="B368" s="1">
         <v>35</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" s="1">
-        <v>368</v>
-      </c>
-      <c r="B368" s="1">
-        <v>39</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="1">
         <v>384</v>
       </c>
-      <c r="B384" s="1">
+      <c r="B385" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" s="1">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="1">
         <v>385</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B386" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A386" s="1">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="1">
         <v>386</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B387" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A387" s="1">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="1">
         <v>387</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B388" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A388" s="2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="2">
         <v>388</v>
       </c>
-      <c r="B388" s="2">
+      <c r="B389" s="2">
         <v>38</v>
       </c>
-      <c r="C388" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A389" s="1">
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="1">
         <v>389</v>
       </c>
-      <c r="B389" s="1">
+      <c r="B390" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A390" s="1">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="1">
         <v>390</v>
       </c>
-      <c r="B390" s="1">
+      <c r="B391" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A391" s="1">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" s="1">
         <v>391</v>
       </c>
-      <c r="B391" s="1">
+      <c r="B392" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A392" s="1">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="1">
         <v>392</v>
       </c>
-      <c r="B392" s="1">
+      <c r="B393" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A393" s="1">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="1">
         <v>393</v>
       </c>
-      <c r="B393" s="1">
+      <c r="B394" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A394" s="1">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="1">
         <v>394</v>
-      </c>
-      <c r="B394" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A395" s="1">
-        <v>395</v>
       </c>
       <c r="B395" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" s="1">
         <v>396</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B397" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A397" s="1">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" s="1">
         <v>397</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B398" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A398" s="1">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" s="1">
         <v>398</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B399" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A399" s="1">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" s="1">
         <v>399</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B400" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A400" s="1">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="1">
         <v>400</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B401" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A401" s="1">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="1">
         <v>401</v>
       </c>
-      <c r="B401" s="1">
+      <c r="B402" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A402" s="1">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" s="1">
         <v>402</v>
       </c>
-      <c r="B402" s="1">
+      <c r="B403" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A403" s="1">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" s="1">
         <v>403</v>
       </c>
-      <c r="B403" s="1">
+      <c r="B404" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A404" s="1">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" s="1">
         <v>404</v>
       </c>
-      <c r="B404" s="1">
+      <c r="B405" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A405" s="1">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="1">
         <v>405</v>
       </c>
-      <c r="B405" s="1">
+      <c r="B406" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A406" s="1">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" s="1">
         <v>406</v>
-      </c>
-      <c r="B406" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A407" s="1">
-        <v>407</v>
       </c>
       <c r="B407" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="1">
         <v>408</v>
       </c>
-      <c r="B408" s="1">
+      <c r="B409" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A409" s="1">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" s="1">
         <v>409</v>
       </c>
-      <c r="B409" s="1">
+      <c r="B410" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A410" s="1">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="1">
         <v>410</v>
       </c>
-      <c r="B410" s="1">
+      <c r="B411" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A411" s="1">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="1">
         <v>411</v>
       </c>
-      <c r="B411" s="1">
+      <c r="B412" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A412" s="1">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="1">
         <v>412</v>
       </c>
-      <c r="B412" s="1">
+      <c r="B413" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A413" s="1">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" s="1">
         <v>413</v>
       </c>
-      <c r="B413" s="1">
+      <c r="B414" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A414" s="11">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="1">
         <v>414</v>
       </c>
-      <c r="B414" s="11">
+      <c r="B415" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A415" s="1">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="1">
         <v>415</v>
       </c>
-      <c r="B415" s="1">
+      <c r="B416" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A416" s="4">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" s="4">
         <v>416</v>
       </c>
-      <c r="B416" s="4">
+      <c r="B417" s="4">
         <v>35</v>
       </c>
-      <c r="C416" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A417" s="7">
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" s="5">
         <v>417</v>
       </c>
-      <c r="B417" s="7">
+      <c r="B418" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A418" s="7">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" s="5">
         <v>418</v>
       </c>
-      <c r="B418" s="7">
+      <c r="B419" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A419" s="7">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" s="5">
         <v>419</v>
       </c>
-      <c r="B419" s="7">
+      <c r="B420" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A420" s="7">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" s="5">
         <v>420</v>
       </c>
-      <c r="B420" s="7">
+      <c r="B421" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A421" s="7">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" s="5">
         <v>421</v>
       </c>
-      <c r="B421" s="7">
+      <c r="B422" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A422" s="7">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" s="5">
         <v>422</v>
       </c>
-      <c r="B422" s="7">
+      <c r="B423" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A423" s="7">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" s="5">
         <v>423</v>
       </c>
-      <c r="B423" s="7">
+      <c r="B424" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A424" s="7">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" s="5">
         <v>424</v>
       </c>
-      <c r="B424" s="7">
+      <c r="B425" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A425" s="7">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" s="5">
         <v>425</v>
       </c>
-      <c r="B425" s="7">
+      <c r="B426" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A426" s="7">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" s="5">
         <v>426</v>
       </c>
-      <c r="B426" s="7">
+      <c r="B427" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A427" s="7">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" s="5">
         <v>427</v>
       </c>
-      <c r="B427" s="7">
+      <c r="B428" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A428" s="7">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" s="5">
         <v>428</v>
       </c>
-      <c r="B428" s="7">
+      <c r="B429" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A429" s="7">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" s="5">
         <v>429</v>
       </c>
-      <c r="B429" s="7">
+      <c r="B430" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A430" s="7">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" s="5">
         <v>430</v>
       </c>
-      <c r="B430" s="7">
+      <c r="B431" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A431" s="7">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" s="5">
         <v>431</v>
       </c>
-      <c r="B431" s="7">
+      <c r="B432" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A432" s="7">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="5">
         <v>432</v>
       </c>
-      <c r="B432" s="7">
+      <c r="B433" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A433" s="7">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="5">
         <v>433</v>
       </c>
-      <c r="B433" s="7">
+      <c r="B434" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A434" s="7">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="5">
         <v>434</v>
       </c>
-      <c r="B434" s="7">
+      <c r="B435" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A435" s="7">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" s="5">
         <v>435</v>
       </c>
-      <c r="B435" s="7">
+      <c r="B436" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A436" s="7">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" s="5">
         <v>436</v>
       </c>
-      <c r="B436" s="7">
+      <c r="B437" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A437" s="7">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" s="5">
         <v>437</v>
       </c>
-      <c r="B437" s="7">
+      <c r="B438" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A438" s="7">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" s="5">
         <v>438</v>
       </c>
-      <c r="B438" s="7">
+      <c r="B439" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A439" s="9">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" s="7">
         <v>439</v>
       </c>
-      <c r="B439" s="9"/>
-      <c r="C439" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A440" s="7">
+      <c r="B440" s="7"/>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" s="5">
         <v>440</v>
       </c>
-      <c r="B440" s="7">
+      <c r="B441" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A441" s="7">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" s="5">
         <v>441</v>
       </c>
-      <c r="B441" s="7">
+      <c r="B442" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A442" s="7">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" s="5">
         <v>442</v>
       </c>
-      <c r="B442" s="7">
+      <c r="B443" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A443" s="7">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" s="5">
         <v>443</v>
       </c>
-      <c r="B443" s="7">
+      <c r="B444" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A444" s="7">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" s="5">
         <v>444</v>
       </c>
-      <c r="B444" s="7">
+      <c r="B445" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A445" s="7">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" s="5">
         <v>445</v>
       </c>
-      <c r="B445" s="7">
+      <c r="B446" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A446" s="7">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" s="5">
         <v>446</v>
       </c>
-      <c r="B446" s="7">
+      <c r="B447" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A447" s="7">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" s="5">
         <v>447</v>
       </c>
-      <c r="B447" s="7">
+      <c r="B448" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A448" s="7">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" s="5">
         <v>448</v>
       </c>
-      <c r="B448" s="7">
+      <c r="B449" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A449" s="7">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" s="5">
         <v>449</v>
       </c>
-      <c r="B449" s="7">
+      <c r="B450" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A450" s="7">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" s="5">
         <v>450</v>
       </c>
-      <c r="B450" s="7">
+      <c r="B451" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A451" s="7">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" s="5">
         <v>451</v>
       </c>
-      <c r="B451" s="7">
+      <c r="B452" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A452" s="7">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" s="5">
         <v>452</v>
       </c>
-      <c r="B452" s="7">
+      <c r="B453" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A453" s="7">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" s="5">
         <v>453</v>
       </c>
-      <c r="B453" s="7">
+      <c r="B454" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A454" s="7">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" s="5">
         <v>454</v>
       </c>
-      <c r="B454" s="7">
+      <c r="B455" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A455" s="7">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" s="5">
         <v>455</v>
       </c>
-      <c r="B455" s="7">
+      <c r="B456" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A456" s="7">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="5">
         <v>456</v>
       </c>
-      <c r="B456" s="7">
+      <c r="B457" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A457" s="7">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" s="5">
         <v>457</v>
       </c>
-      <c r="B457" s="7">
+      <c r="B458" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A458" s="7">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" s="5">
         <v>458</v>
       </c>
-      <c r="B458" s="7">
+      <c r="B459" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A459" s="7">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" s="5">
         <v>459</v>
       </c>
-      <c r="B459" s="7">
+      <c r="B460" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A460" s="7">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" s="5">
         <v>460</v>
       </c>
-      <c r="B460" s="7">
+      <c r="B461" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A461" s="7">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" s="5">
         <v>461</v>
       </c>
-      <c r="B461" s="7">
+      <c r="B462" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A462" s="7">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" s="5">
         <v>462</v>
       </c>
-      <c r="B462" s="7">
+      <c r="B463" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A463" s="7">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" s="5">
         <v>463</v>
       </c>
-      <c r="B463" s="7">
+      <c r="B464" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A464" s="7">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="5">
         <v>464</v>
       </c>
-      <c r="B464" s="7">
+      <c r="B465" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A465" s="7">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" s="5">
         <v>465</v>
       </c>
-      <c r="B465" s="7">
+      <c r="B466" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A466" s="7">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="5">
         <v>466</v>
       </c>
-      <c r="B466" s="7">
+      <c r="B467" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A467" s="7">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" s="5">
         <v>467</v>
       </c>
-      <c r="B467" s="7">
+      <c r="B468" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A468" s="8">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" s="6">
         <v>468</v>
       </c>
-      <c r="B468" s="8">
+      <c r="B469" s="6">
         <v>35</v>
       </c>
-      <c r="C468" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A469" s="1">
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" s="1">
         <v>469</v>
       </c>
-      <c r="B469" s="1">
+      <c r="B470" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A470" s="1">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" s="1">
         <v>470</v>
       </c>
-      <c r="B470" s="1">
+      <c r="B471" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A471" s="1">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="1">
         <v>471</v>
       </c>
-      <c r="B471" s="1">
+      <c r="B472" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A472" s="1">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473" s="1">
         <v>472</v>
       </c>
-      <c r="B472" s="1">
+      <c r="B473" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A473" s="1">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" s="1">
         <v>473</v>
       </c>
-      <c r="B473" s="1">
+      <c r="B474" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A474" s="1">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" s="1">
         <v>474</v>
       </c>
-      <c r="B474" s="1">
+      <c r="B475" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A475" s="1">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476" s="1">
         <v>475</v>
       </c>
-      <c r="B475" s="1">
+      <c r="B476" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A476" s="1">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" s="1">
         <v>476</v>
       </c>
-      <c r="B476" s="1">
+      <c r="B477" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A477" s="1">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478" s="1">
         <v>477</v>
       </c>
-      <c r="B477" s="1">
+      <c r="B478" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A478" s="1">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479" s="1">
         <v>478</v>
       </c>
-      <c r="B478" s="1">
+      <c r="B479" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A479" s="1">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480" s="1">
         <v>479</v>
-      </c>
-      <c r="B479" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A480" s="1">
-        <v>480</v>
       </c>
       <c r="B480" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
+        <v>480</v>
+      </c>
+      <c r="B481" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="1">
         <v>481</v>
-      </c>
-      <c r="B481" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A482" s="1">
-        <v>482</v>
       </c>
       <c r="B482" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
+        <v>482</v>
+      </c>
+      <c r="B483" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" s="1">
         <v>483</v>
       </c>
-      <c r="B483" s="1">
+      <c r="B484" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A484" s="1">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" s="1">
         <v>484</v>
       </c>
-      <c r="B484" s="1">
+      <c r="B485" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A485" s="1">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" s="1">
         <v>485</v>
       </c>
-      <c r="B485" s="1">
+      <c r="B486" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A486" s="1">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="1">
         <v>486</v>
       </c>
-      <c r="B486" s="1">
+      <c r="B487" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A487" s="1">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" s="1">
         <v>487</v>
       </c>
-      <c r="B487" s="1">
+      <c r="B488" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A488" s="1">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" s="1">
         <v>488</v>
       </c>
-      <c r="B488" s="1">
+      <c r="B489" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A489" s="1">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" s="1">
         <v>489</v>
       </c>
-      <c r="B489" s="1">
+      <c r="B490" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A490" s="2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" s="2">
         <v>490</v>
       </c>
-      <c r="B490" s="2"/>
-      <c r="C490" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A491" s="1">
+      <c r="B491" s="2"/>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="1">
         <v>491</v>
       </c>
-      <c r="B491" s="1">
+      <c r="B492" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A492" s="1">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" s="1">
         <v>492</v>
       </c>
-      <c r="B492" s="1">
+      <c r="B493" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A493" s="1">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" s="1">
         <v>493</v>
-      </c>
-      <c r="B493" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A494" s="1">
-        <v>494</v>
       </c>
       <c r="B494" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
+        <v>494</v>
+      </c>
+      <c r="B495" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" s="1">
         <v>495</v>
       </c>
-      <c r="B495" s="1">
+      <c r="B496" s="1">
         <v>30</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A496" s="1">
-        <v>496</v>
-      </c>
-      <c r="B496" s="1">
-        <v>34</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B510" s="1">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B511" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
+        <v>511</v>
+      </c>
+      <c r="B512" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A513" s="1">
         <v>512</v>
       </c>
-      <c r="B512" s="1">
+      <c r="B513" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A513" s="1">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A514" s="1">
         <v>513</v>
       </c>
-      <c r="B513" s="1">
+      <c r="B514" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A514" s="1">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A515" s="1">
         <v>514</v>
-      </c>
-      <c r="B514" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A515" s="1">
-        <v>515</v>
       </c>
       <c r="B515" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
+        <v>515</v>
+      </c>
+      <c r="B516" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517" s="1">
         <v>516</v>
-      </c>
-      <c r="B516" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A517" s="1">
-        <v>517</v>
       </c>
       <c r="B517" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="B518" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519" s="1">
         <v>518</v>
       </c>
-      <c r="B518" s="1">
+      <c r="B519" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A519" s="1">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520" s="1">
         <v>519</v>
       </c>
-      <c r="B519" s="1">
+      <c r="B520" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A520" s="4">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521" s="4">
         <v>520</v>
       </c>
-      <c r="B520" s="4">
+      <c r="B521" s="4">
         <v>40</v>
       </c>
-      <c r="C520" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A521" s="7">
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="5">
         <v>521</v>
       </c>
-      <c r="B521" s="7">
+      <c r="B522" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A522" s="7">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523" s="5">
         <v>522</v>
       </c>
-      <c r="B522" s="7">
+      <c r="B523" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A523" s="7">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524" s="5">
         <v>523</v>
       </c>
-      <c r="B523" s="7">
+      <c r="B524" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A524" s="7">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525" s="5">
         <v>524</v>
       </c>
-      <c r="B524" s="7">
+      <c r="B525" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A525" s="7">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A526" s="5">
         <v>525</v>
       </c>
-      <c r="B525" s="7">
+      <c r="B526" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A526" s="7">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527" s="5">
         <v>526</v>
       </c>
-      <c r="B526" s="7">
+      <c r="B527" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A527" s="7">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528" s="5">
         <v>527</v>
       </c>
-      <c r="B527" s="7">
+      <c r="B528" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A528" s="7">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" s="5">
         <v>528</v>
       </c>
-      <c r="B528" s="7">
+      <c r="B529" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A529" s="7">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530" s="5">
         <v>529</v>
       </c>
-      <c r="B529" s="7">
+      <c r="B530" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A530" s="7">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531" s="5">
         <v>530</v>
       </c>
-      <c r="B530" s="7">
+      <c r="B531" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A531" s="7">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" s="5">
         <v>531</v>
       </c>
-      <c r="B531" s="7">
+      <c r="B532" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A532" s="7">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B532" s="7">
+      <c r="B533" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A533" s="7">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534" s="5">
         <v>533</v>
       </c>
-      <c r="B533" s="7">
+      <c r="B534" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A534" s="7">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B534" s="7">
+      <c r="B535" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A535" s="7">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A536" s="5">
         <v>535</v>
       </c>
-      <c r="B535" s="7">
+      <c r="B536" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A536" s="7">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B536" s="7">
+      <c r="B537" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A537" s="7">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A538" s="5">
         <v>537</v>
       </c>
-      <c r="B537" s="7">
+      <c r="B538" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A538" s="7">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B538" s="7">
+      <c r="B539" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A539" s="9">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A540" s="7">
         <v>539</v>
       </c>
-      <c r="B539" s="9"/>
-      <c r="C539" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A540" s="7">
+      <c r="B540" s="7"/>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B540" s="7">
+      <c r="B541" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A541" s="7">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542" s="5">
         <v>541</v>
       </c>
-      <c r="B541" s="7">
+      <c r="B542" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A542" s="7">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A543" s="5">
         <v>542</v>
       </c>
-      <c r="B542" s="7">
+      <c r="B543" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A543" s="7">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544" s="5">
         <v>543</v>
       </c>
-      <c r="B543" s="7">
+      <c r="B544" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A544" s="7">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A545" s="5">
         <v>544</v>
       </c>
-      <c r="B544" s="7">
+      <c r="B545" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A545" s="7">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A546" s="5">
         <v>545</v>
       </c>
-      <c r="B545" s="7">
+      <c r="B546" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A546" s="7">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547" s="5">
         <v>546</v>
       </c>
-      <c r="B546" s="7">
+      <c r="B547" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A547" s="7">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A548" s="5">
         <v>547</v>
       </c>
-      <c r="B547" s="7">
+      <c r="B548" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A548" s="7">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A549" s="5">
         <v>548</v>
       </c>
-      <c r="B548" s="7">
+      <c r="B549" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A549" s="7">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A550" s="5">
         <v>549</v>
       </c>
-      <c r="B549" s="7">
+      <c r="B550" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A550" s="7">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A551" s="5">
         <v>550</v>
       </c>
-      <c r="B550" s="7">
+      <c r="B551" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A551" s="7">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552" s="5">
         <v>551</v>
       </c>
-      <c r="B551" s="7">
+      <c r="B552" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A552" s="7">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A553" s="5">
         <v>552</v>
       </c>
-      <c r="B552" s="7">
+      <c r="B553" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A553" s="7">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A554" s="5">
         <v>553</v>
       </c>
-      <c r="B553" s="7">
+      <c r="B554" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A554" s="7">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A555" s="5">
         <v>554</v>
       </c>
-      <c r="B554" s="7">
+      <c r="B555" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A555" s="7">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A556" s="5">
         <v>555</v>
       </c>
-      <c r="B555" s="7">
+      <c r="B556" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A556" s="7">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557" s="5">
         <v>556</v>
       </c>
-      <c r="B556" s="7">
+      <c r="B557" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A557" s="7">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A558" s="5">
         <v>557</v>
       </c>
-      <c r="B557" s="7">
+      <c r="B558" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A558" s="7">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A559" s="5">
         <v>558</v>
       </c>
-      <c r="B558" s="7">
+      <c r="B559" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A559" s="7">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A560" s="5">
         <v>559</v>
       </c>
-      <c r="B559" s="7">
+      <c r="B560" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A560" s="7">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A561" s="5">
         <v>560</v>
       </c>
-      <c r="B560" s="7">
+      <c r="B561" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A561" s="7">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562" s="5">
         <v>561</v>
       </c>
-      <c r="B561" s="7">
+      <c r="B562" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A562" s="7">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A563" s="5">
         <v>562</v>
       </c>
-      <c r="B562" s="7">
+      <c r="B563" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A563" s="7">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A564" s="5">
         <v>563</v>
       </c>
-      <c r="B563" s="7">
+      <c r="B564" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A564" s="7">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A565" s="5">
         <v>564</v>
       </c>
-      <c r="B564" s="7">
+      <c r="B565" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A565" s="7">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A566" s="5">
         <v>565</v>
       </c>
-      <c r="B565" s="7">
+      <c r="B566" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A566" s="7">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567" s="5">
         <v>566</v>
       </c>
-      <c r="B566" s="7">
+      <c r="B567" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A567" s="7">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A568" s="5">
         <v>567</v>
       </c>
-      <c r="B567" s="7">
+      <c r="B568" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A568" s="7">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A569" s="5">
         <v>568</v>
       </c>
-      <c r="B568" s="7">
+      <c r="B569" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A569" s="7">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A570" s="5">
         <v>569</v>
       </c>
-      <c r="B569" s="7">
+      <c r="B570" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A570" s="7">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A571" s="5">
         <v>570</v>
       </c>
-      <c r="B570" s="7">
+      <c r="B571" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A571" s="7">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572" s="5">
         <v>571</v>
       </c>
-      <c r="B571" s="7">
+      <c r="B572" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A572" s="8">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A573" s="6">
         <v>572</v>
       </c>
-      <c r="B572" s="8">
+      <c r="B573" s="6">
         <v>42</v>
       </c>
-      <c r="C572" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A573" s="1">
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A574" s="1">
         <v>573</v>
       </c>
-      <c r="B573" s="1">
+      <c r="B574" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A574" s="1">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A575" s="1">
         <v>574</v>
       </c>
-      <c r="B574" s="1">
+      <c r="B575" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A575" s="1">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A576" s="1">
         <v>575</v>
       </c>
-      <c r="B575" s="1">
+      <c r="B576" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A576" s="1">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A577" s="1">
         <v>576</v>
       </c>
-      <c r="B576" s="1">
+      <c r="B577" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A577" s="1">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A578" s="1">
         <v>577</v>
       </c>
-      <c r="B577" s="1">
+      <c r="B578" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A578" s="1">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A579" s="1">
         <v>578</v>
       </c>
-      <c r="B578" s="1">
+      <c r="B579" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A579" s="1">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A580" s="1">
         <v>579</v>
-      </c>
-      <c r="B579" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A580" s="1">
-        <v>580</v>
       </c>
       <c r="B580" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
+        <v>580</v>
+      </c>
+      <c r="B581" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A582" s="1">
         <v>581</v>
       </c>
-      <c r="B581" s="1">
+      <c r="B582" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A582" s="1">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A583" s="1">
         <v>582</v>
       </c>
-      <c r="B582" s="1">
+      <c r="B583" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A583" s="1">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A584" s="1">
         <v>583</v>
       </c>
-      <c r="B583" s="1">
+      <c r="B584" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A584" s="1">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A585" s="1">
         <v>584</v>
       </c>
-      <c r="B584" s="1">
+      <c r="B585" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A585" s="1">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A586" s="1">
         <v>585</v>
       </c>
-      <c r="B585" s="1">
+      <c r="B586" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A586" s="1">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A587" s="1">
         <v>586</v>
       </c>
-      <c r="B586" s="1">
+      <c r="B587" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A587" s="1">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A588" s="1">
         <v>587</v>
       </c>
-      <c r="B587" s="1">
+      <c r="B588" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A588" s="1">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A589" s="1">
         <v>588</v>
       </c>
-      <c r="B588" s="1">
+      <c r="B589" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A589" s="1">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A590" s="1">
         <v>589</v>
       </c>
-      <c r="B589" s="1">
+      <c r="B590" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A590" s="2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A591" s="2">
         <v>590</v>
       </c>
-      <c r="B590" s="2"/>
-      <c r="C590" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A591" s="1">
+      <c r="B591" s="2"/>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A592" s="1">
         <v>591</v>
       </c>
-      <c r="B591" s="1">
+      <c r="B592" s="1">
         <v>35</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A592" s="1">
-        <v>592</v>
-      </c>
-      <c r="B592" s="1">
-        <v>36</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B600" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B603" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B604" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B605" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B608" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B611" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B612" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B615" s="1">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B616" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B617" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B618" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B622" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
+        <v>623</v>
+      </c>
+      <c r="B624" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A625" s="1">
         <v>624</v>
       </c>
-      <c r="B624" s="1">
+      <c r="B625" s="1">
         <v>33</v>
       </c>
     </row>
